--- a/ERP/ERP_Icon_List.xlsx
+++ b/ERP/ERP_Icon_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12615"/>
+    <workbookView windowWidth="28695" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Administration" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t xml:space="preserve">  Administration</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Reports</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,14 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -172,16 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,70 +191,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +244,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -280,7 +269,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,14 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,13 +319,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,169 +451,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,45 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,8 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,161 +571,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1086,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1099,7 +1099,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1293,13 +1293,19 @@
         <v>37</v>
       </c>
     </row>
+    <row r="45" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A20:XFD20"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A45:XFD45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/ERP/ERP_Icon_List.xlsx
+++ b/ERP/ERP_Icon_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12975"/>
+    <workbookView windowWidth="28695" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Administration" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t xml:space="preserve">  Administration</t>
   </si>
   <si>
     <t>Administration</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
   <si>
     <t>Shifts</t>
@@ -138,12 +141,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,23 +163,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,46 +195,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,68 +314,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,49 +330,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,133 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +527,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,43 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,8 +611,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,157 +632,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1103,124 +1123,169 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1228,74 +1293,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
